--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>CHECKLIST PENGECEKAN KONDISI KAPAL KT…......CABANG….................</t>
-  </si>
-  <si>
-    <t>Index Temuan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -50,9 +44,6 @@
     <t>status</t>
   </si>
   <si>
-    <t>upload doc</t>
-  </si>
-  <si>
     <t>BAIK</t>
   </si>
   <si>
@@ -65,9 +56,6 @@
     <t>TGL CLOSE</t>
   </si>
   <si>
-    <t>Cabang-Nama Kapal-no urut auto increment-Bulan-Tahun</t>
-  </si>
-  <si>
     <t>${table:pk.question}</t>
   </si>
   <si>
@@ -89,7 +77,10 @@
     <t>${table:pk.status}</t>
   </si>
   <si>
-    <t>*index temuan hanya utk case yang dianggap temuan</t>
+    <t>${table:pk.NO}</t>
+  </si>
+  <si>
+    <t>CHECKLIST PENGECEKAN KONDISI KAPAL KT ${kapal}  CABANG ${cabang}</t>
   </si>
 </sst>
 </file>
@@ -138,33 +129,18 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -188,35 +164,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,131 +469,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K1048576"/>
+  <dimension ref="A2:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.25" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="85.25" customWidth="1"/>
-    <col min="5" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.9140625" customWidth="1"/>
-    <col min="12" max="26" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="0.6640625" customWidth="1"/>
+    <col min="2" max="2" width="85.25" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.4140625" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="23" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="13" t="s">
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="12" t="s">
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
-    <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="7"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E7" s="10"/>
-    </row>
-    <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1609,16 +1558,14 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="C2:I2"/>
+  <mergeCells count="7">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>NO</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>CHECKLIST PENGECEKAN KONDISI KAPAL KT ${kapal}  CABANG ${cabang}</t>
+  </si>
+  <si>
+    <t>Bukti Temuan</t>
   </si>
 </sst>
 </file>
@@ -90,30 +93,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -128,6 +112,40 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="5"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,7 +155,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -160,37 +178,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H1048576"/>
+  <dimension ref="A2:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -486,93 +543,102 @@
     <col min="8" max="23" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="I4" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="I6" s="15" t="str">
+        <f>IF("${table:pk.gambar}" &lt;&gt; "", HYPERLINK("${table:pk.gambar}","download"), "")</f>
+        <v>download</v>
+      </c>
+      <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1558,7 +1624,8 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A5"/>

--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Bukti Temuan</t>
+  </si>
+  <si>
+    <t>${table:pk.gambar}</t>
   </si>
 </sst>
 </file>
@@ -213,38 +216,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -529,7 +532,7 @@
   <dimension ref="A2:J1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -544,65 +547,65 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -611,23 +614,22 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="15" t="str">
-        <f>IF("${table:pk.gambar}" &lt;&gt; "", HYPERLINK("${table:pk.gambar}","download"), "")</f>
-        <v>download</v>
-      </c>
-      <c r="J6" s="16"/>
+      <c r="I6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
@@ -1634,7 +1636,10 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:G5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I6" r:id="rId1" display="http://10.88.49.27:3000/${table:pk.gambar}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>NO</t>
   </si>
@@ -32,18 +32,9 @@
     <t>ITEM PENGECEKAN</t>
   </si>
   <si>
-    <t>KONDISI</t>
-  </si>
-  <si>
-    <t>MASA BERLAKU</t>
-  </si>
-  <si>
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>BAIK</t>
   </si>
   <si>
@@ -80,13 +71,13 @@
     <t>${table:pk.NO}</t>
   </si>
   <si>
-    <t>CHECKLIST PENGECEKAN KONDISI KAPAL KT ${kapal}  CABANG ${cabang}</t>
-  </si>
-  <si>
-    <t>Bukti Temuan</t>
-  </si>
-  <si>
-    <t>${table:pk.gambar}</t>
+    <t>CHECKLIST PENGECEKAN KONDISI KAPAL KT MENCAKUP INSPEKSI PEMERIKSAAN KAPAL, JENIS KAPAL &amp; CABANG ${kapal}  CABANG ${cabang}</t>
+  </si>
+  <si>
+    <t>KONDISI &amp; MASA BERLAKU</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -129,13 +120,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -149,6 +133,12 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,23 +175,34 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -210,7 +211,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -219,17 +220,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -239,14 +233,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J1048576"/>
+  <dimension ref="A2:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -543,104 +546,96 @@
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="16.4140625" customWidth="1"/>
     <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="23" width="7.6640625" customWidth="1"/>
+    <col min="8" max="22" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="H4" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="11" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="F5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="16"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="16"/>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1626,20 +1621,15 @@
     <row r="1048575" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I4:I5"/>
+  <mergeCells count="6">
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" display="http://10.88.49.27:3000/${table:pk.gambar}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>NO</t>
   </si>
@@ -74,10 +74,13 @@
     <t>CHECKLIST PENGECEKAN KONDISI KAPAL KT MENCAKUP INSPEKSI PEMERIKSAAN KAPAL, JENIS KAPAL &amp; CABANG ${kapal}  CABANG ${cabang}</t>
   </si>
   <si>
-    <t>KONDISI &amp; MASA BERLAKU</t>
-  </si>
-  <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>KONDISI</t>
+  </si>
+  <si>
+    <t>MASA BERLAKU</t>
   </si>
 </sst>
 </file>
@@ -212,6 +215,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -232,9 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,7 +522,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -528,40 +531,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -574,8 +579,8 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -604,13 +609,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -131,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,48 +154,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,15 +182,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,7 +476,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -552,15 +506,15 @@
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -579,8 +533,8 @@
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">

--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\ilcs\simpanda\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\simpanda_oracle\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -476,15 +476,16 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -496,7 +497,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -518,7 +519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
@@ -536,7 +537,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -573,5 +574,6 @@
     <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/report/Report-Inspection-Pemeriksaan kapal.xlsx
+++ b/report/Report-Inspection-Pemeriksaan kapal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -71,9 +71,6 @@
     <t>${table:pk.NO}</t>
   </si>
   <si>
-    <t>CHECKLIST PENGECEKAN KONDISI KAPAL KT MENCAKUP INSPEKSI PEMERIKSAAN KAPAL, JENIS KAPAL &amp; CABANG ${kapal}  CABANG ${cabang}</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -81,6 +78,15 @@
   </si>
   <si>
     <t>MASA BERLAKU</t>
+  </si>
+  <si>
+    <t>Jenis Kapal : ${tipe_asset}</t>
+  </si>
+  <si>
+    <t>Cabang : ${cabang}</t>
+  </si>
+  <si>
+    <t>INSPEKSI PEMERIKSAAN KAPAL ${kapal}</t>
   </si>
 </sst>
 </file>
@@ -90,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,28 +104,46 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
     <font>
-      <sz val="5"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="5"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="5"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -158,40 +182,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,105 +506,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.69921875" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="72.8984375" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row r="1" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+    <row r="2" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
